--- a/ProductPrice.xlsx
+++ b/ProductPrice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18385" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18387" uniqueCount="1932">
   <si>
     <t>StateCode</t>
   </si>
@@ -5809,6 +5809,12 @@
   </si>
   <si>
     <t>Current Owner Search</t>
+  </si>
+  <si>
+    <t>sdfseg4rter</t>
+  </si>
+  <si>
+    <t>ertert</t>
   </si>
 </sst>
 </file>
@@ -6158,7 +6164,7 @@
   <dimension ref="A1:L3276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,6 +6404,9 @@
       <c r="G9" t="s">
         <v>7</v>
       </c>
+      <c r="I9" t="s">
+        <v>1930</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6471,6 +6480,9 @@
         <v>7</v>
       </c>
       <c r="J12" s="1"/>
+      <c r="K12" t="s">
+        <v>1931</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
